--- a/backend/links.xlsx
+++ b/backend/links.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdityaRaj\Desktop\Projects\links\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ganitinc1-my.sharepoint.com/personal/aditya_raj_ganitinc_com/Documents/Desktop/projects/prev-links/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3D20A6-757E-4CA6-9B12-45733BD8DB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9A3D20A6-757E-4CA6-9B12-45733BD8DB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A154C3BC-870D-49EB-B586-B0F1BB795DA3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="profiles" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>name</t>
   </si>
@@ -100,13 +101,268 @@
   </si>
   <si>
     <t>https://www.pornhub.com/view_video.php?viewkey=ph5eb8d3e7adb52</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Sky brei</t>
+  </si>
+  <si>
+    <t>Holly Micheals</t>
+  </si>
+  <si>
+    <t>Rose monroe</t>
+  </si>
+  <si>
+    <t>Valerie kay</t>
+  </si>
+  <si>
+    <t>Josie tucker</t>
+  </si>
+  <si>
+    <t>Giselle palmer</t>
+  </si>
+  <si>
+    <t>Nursath dulal</t>
+  </si>
+  <si>
+    <t>Kendra sunderland blacked</t>
+  </si>
+  <si>
+    <t>Alina lopez</t>
+  </si>
+  <si>
+    <t>Emma rosie blacked</t>
+  </si>
+  <si>
+    <t>Tori mack</t>
+  </si>
+  <si>
+    <t>Liya Silver</t>
+  </si>
+  <si>
+    <t>Summer Vixen</t>
+  </si>
+  <si>
+    <t>Blancnoir</t>
+  </si>
+  <si>
+    <t>Lyra Law</t>
+  </si>
+  <si>
+    <t>Cameron Canela</t>
+  </si>
+  <si>
+    <t>Kendra Sunderland</t>
+  </si>
+  <si>
+    <t>Naomi Swann</t>
+  </si>
+  <si>
+    <t>Kimmy Granger</t>
+  </si>
+  <si>
+    <t>Cassidy Klein</t>
+  </si>
+  <si>
+    <t>Mia malkova</t>
+  </si>
+  <si>
+    <t>Mea Milano</t>
+  </si>
+  <si>
+    <t>Skylar Vox</t>
+  </si>
+  <si>
+    <t>India Summer</t>
+  </si>
+  <si>
+    <t>Kenzie Anne</t>
+  </si>
+  <si>
+    <t>Julia Ann</t>
+  </si>
+  <si>
+    <t>Ella Reese</t>
+  </si>
+  <si>
+    <t>Naomi Woods</t>
+  </si>
+  <si>
+    <t>Brittney White</t>
+  </si>
+  <si>
+    <t>Faye Reagan</t>
+  </si>
+  <si>
+    <t>Hazel Moore</t>
+  </si>
+  <si>
+    <t>Kit Mercer</t>
+  </si>
+  <si>
+    <t>Layla london</t>
+  </si>
+  <si>
+    <t>Blake Blossom</t>
+  </si>
+  <si>
+    <t>Taylor Blake</t>
+  </si>
+  <si>
+    <t>Eden Blake</t>
+  </si>
+  <si>
+    <t>Molly little</t>
+  </si>
+  <si>
+    <t>Molly mae</t>
+  </si>
+  <si>
+    <t>Samantha Rone</t>
+  </si>
+  <si>
+    <t>Samantha Bentley</t>
+  </si>
+  <si>
+    <t>Jay Taylor</t>
+  </si>
+  <si>
+    <t>Savannah Bond</t>
+  </si>
+  <si>
+    <t>Kayley Gunner</t>
+  </si>
+  <si>
+    <t>Natasha Nice</t>
+  </si>
+  <si>
+    <t>Kourtney love</t>
+  </si>
+  <si>
+    <t>Silvia Saige</t>
+  </si>
+  <si>
+    <t>Cathy Heaven</t>
+  </si>
+  <si>
+    <t>Katie Kush</t>
+  </si>
+  <si>
+    <t>Sophea Leone</t>
+  </si>
+  <si>
+    <t>Lyra Louvel</t>
+  </si>
+  <si>
+    <t>Karla Kush</t>
+  </si>
+  <si>
+    <t>Emily Willis</t>
+  </si>
+  <si>
+    <t>Gina Valentina</t>
+  </si>
+  <si>
+    <t>Lena Paul</t>
+  </si>
+  <si>
+    <t>Violet Myer</t>
+  </si>
+  <si>
+    <t>Rae lil black</t>
+  </si>
+  <si>
+    <t>Nicole Aniston</t>
+  </si>
+  <si>
+    <t>Eva Lovia</t>
+  </si>
+  <si>
+    <t>Elsa Jean</t>
+  </si>
+  <si>
+    <t>Eliza ibarra</t>
+  </si>
+  <si>
+    <t>Valentina Napii</t>
+  </si>
+  <si>
+    <t>La serina 69</t>
+  </si>
+  <si>
+    <t>Lela Star</t>
+  </si>
+  <si>
+    <t>Victoria June</t>
+  </si>
+  <si>
+    <t>Stella Cox</t>
+  </si>
+  <si>
+    <t>Jia Lissa</t>
+  </si>
+  <si>
+    <t>Kendra Sunderland </t>
+  </si>
+  <si>
+    <t>Ella Knox</t>
+  </si>
+  <si>
+    <t>Lacy Lennon</t>
+  </si>
+  <si>
+    <t>Aiden Ashley</t>
+  </si>
+  <si>
+    <t>Gia Derza</t>
+  </si>
+  <si>
+    <t>Sofie reyez</t>
+  </si>
+  <si>
+    <t>Chanel Preston</t>
+  </si>
+  <si>
+    <t>Kayla Kayden</t>
+  </si>
+  <si>
+    <t>Skylar Snow</t>
+  </si>
+  <si>
+    <t>Ivy Lebelle</t>
+  </si>
+  <si>
+    <t>Bess Breast</t>
+  </si>
+  <si>
+    <t>Chanel Camyn</t>
+  </si>
+  <si>
+    <t>Angel Gostosa</t>
+  </si>
+  <si>
+    <t>Sera Ryder</t>
+  </si>
+  <si>
+    <t>Tru Kait</t>
+  </si>
+  <si>
+    <t>Scarlet Chase</t>
+  </si>
+  <si>
+    <t>Lola rose</t>
+  </si>
+  <si>
+    <t>Giselle Palmer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +375,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,9 +403,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,6 +427,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -623,4 +895,453 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FB923-DF52-4BF7-9755-B58356DAF9D8}">
+  <dimension ref="A1:A87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>